--- a/project DB/БД.xlsx
+++ b/project DB/БД.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>firstname</t>
   </si>
@@ -69,9 +69,6 @@
     <t>должность</t>
   </si>
   <si>
-    <t>password_hash</t>
-  </si>
-  <si>
     <t>patient_profiles</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>INDEX</t>
   </si>
   <si>
-    <t>хэш пароля</t>
-  </si>
-  <si>
     <t>user_roles</t>
   </si>
   <si>
@@ -144,12 +138,6 @@
     <t>id_profiles</t>
   </si>
   <si>
-    <t>id_users</t>
-  </si>
-  <si>
-    <t>user_profiles.post</t>
-  </si>
-  <si>
     <t>id_roles</t>
   </si>
   <si>
@@ -226,18 +214,77 @@
   </si>
   <si>
     <t>name_roles</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>право на чтение запись удаление в мед.карте</t>
+  </si>
+  <si>
+    <t>список отчетов на право исполнения</t>
+  </si>
+  <si>
+    <t>список  полей для заполнения</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(120) UNIQUE</t>
+  </si>
+  <si>
+    <t>DATETIME DEFAULT NOW()</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>код должности</t>
+  </si>
+  <si>
+    <t>имя должности</t>
+  </si>
+  <si>
+    <t>INT(10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -478,20 +531,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -499,9 +552,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -509,6 +562,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -810,575 +867,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D67"/>
+  <dimension ref="A3:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="B36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="25"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25" t="s">
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="C44" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="24"/>
+      <c r="E46" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="55" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
-      <c r="D59" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="24"/>
+      <c r="E59" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+      <c r="E62" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+      <c r="E63" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+      <c r="E64" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="29" t="s">
-        <v>68</v>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/project DB/БД.xlsx
+++ b/project DB/БД.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="156">
   <si>
     <t>firstname</t>
   </si>
@@ -454,6 +454,36 @@
   </si>
   <si>
     <t>REFERENCES user_profiles(id_user) ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>дата размещения в палате стационара</t>
+  </si>
+  <si>
+    <t>дата выписки из палаты стационара</t>
+  </si>
+  <si>
+    <t>dateto_chamber_medical</t>
+  </si>
+  <si>
+    <t>dateoff_chamber_medical</t>
+  </si>
+  <si>
+    <t>medical_cards</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (code_drugs_medical) REFERENCES drugs(id_chambers)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (code_diseases_medical) REFERENCES diseases(id_diseases)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (id_user_medical) REFERENCES user_profiles(id_user)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (id_patients_medical) REFERENCES patient_profiles(id_profiles)</t>
   </si>
 </sst>
 </file>
@@ -1066,17 +1096,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E116"/>
+  <dimension ref="A3:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2010,7 +2041,9 @@
       <c r="A89" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B89" s="24"/>
+      <c r="B89" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C89" s="24" t="s">
         <v>77</v>
       </c>
@@ -2023,7 +2056,9 @@
       <c r="A90" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C90" s="2" t="s">
         <v>72</v>
       </c>
@@ -2047,7 +2082,7 @@
     </row>
     <row r="96" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>112</v>
@@ -2090,7 +2125,9 @@
       <c r="A99" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C99" s="24" t="s">
         <v>77</v>
       </c>
@@ -2103,11 +2140,15 @@
       <c r="A100" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C100" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>127</v>
       </c>
@@ -2116,11 +2157,15 @@
       <c r="A101" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C101" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="31" t="s">
+        <v>154</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>128</v>
       </c>
@@ -2146,7 +2191,9 @@
       <c r="C103" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="31" t="s">
+        <v>153</v>
+      </c>
       <c r="E103" s="34" t="s">
         <v>115</v>
       </c>
@@ -2159,7 +2206,9 @@
       <c r="C104" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="31" t="s">
+        <v>152</v>
+      </c>
       <c r="E104" s="34" t="s">
         <v>116</v>
       </c>
@@ -2170,7 +2219,7 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="34" t="s">
@@ -2182,106 +2231,138 @@
         <v>121</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="31"/>
       <c r="E106" s="34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B112" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="1">
+      <c r="C112" s="5"/>
+      <c r="D112" s="1">
         <v>10</v>
       </c>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B113" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C113" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D113" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="E113" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
+    <row r="114" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="3" t="s">
+      <c r="B114" s="24"/>
+      <c r="C114" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24" t="s">
+      <c r="B115" s="24"/>
+      <c r="C115" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24" t="s">
+      <c r="D115" s="24"/>
+      <c r="E115" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="32" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
+      <c r="B116" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D116" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2" t="s">
+      <c r="B117" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D117" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2" t="s">
+      <c r="D118" s="2"/>
+      <c r="E118" s="2" t="s">
         <v>143</v>
       </c>
     </row>

--- a/project DB/БД.xlsx
+++ b/project DB/БД.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="167">
   <si>
     <t>firstname</t>
   </si>
@@ -484,6 +484,39 @@
   </si>
   <si>
     <t>FOREIGN KEY (id_patients_medical) REFERENCES patient_profiles(id_profiles)</t>
+  </si>
+  <si>
+    <t>patien_photo</t>
+  </si>
+  <si>
+    <t>исследовательсике снимки пациента</t>
+  </si>
+  <si>
+    <t>id_photo SERIAL</t>
+  </si>
+  <si>
+    <t>patien_id_photo</t>
+  </si>
+  <si>
+    <t>name_photo</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (patien_id_photo) REFERENCES patient_profiles(id_profiles) ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>путь и имя файла</t>
+  </si>
+  <si>
+    <t>id пациента</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (number_medical) REFERENCES patient_profiles(medical_card)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (number_chambers_medical) REFERENCES chambers(id_chambers</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (department) REFERENCES chambers(id_chambers) ON UPDATE CASCADE)</t>
   </si>
 </sst>
 </file>
@@ -571,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -753,11 +786,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -795,6 +841,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1096,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E118"/>
+  <dimension ref="A3:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1295,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>85</v>
@@ -1259,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>86</v>
@@ -1274,7 +1327,7 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>87</v>
@@ -1283,15 +1336,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="E15" s="19" t="s">
         <v>91</v>
       </c>
@@ -1304,7 +1359,7 @@
       <c r="C16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1915,7 @@
       <c r="C69" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="31"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,7 +1998,7 @@
       <c r="C78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="31"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="24"/>
     </row>
     <row r="79" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -2034,7 +2089,7 @@
       <c r="C88" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D88" s="31"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,7 +2173,7 @@
       <c r="C98" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="31"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,9 +2184,11 @@
         <v>31</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D99" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>164</v>
+      </c>
       <c r="E99" s="24" t="s">
         <v>113</v>
       </c>
@@ -2189,7 +2246,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D103" s="31" t="s">
         <v>153</v>
@@ -2204,7 +2261,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D104" s="31" t="s">
         <v>152</v>
@@ -2234,7 +2291,9 @@
       <c r="C106" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="31"/>
+      <c r="D106" s="31" t="s">
+        <v>165</v>
+      </c>
       <c r="E106" s="34" t="s">
         <v>119</v>
       </c>
@@ -2364,6 +2423,77 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="1">
+        <v>10</v>
+      </c>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="38"/>
+      <c r="C126" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
